--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -19,14 +19,54 @@
     <t>Name</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Value/Formula</t>
+  </si>
+  <si>
+    <t>Bold Text</t>
+  </si>
+  <si>
+    <t>Italic Text</t>
+  </si>
+  <si>
+    <t>Underlined Text</t>
+  </si>
+  <si>
+    <t>Red Text</t>
+  </si>
+  <si>
+    <t>Large Text</t>
+  </si>
+  <si>
+    <t>Yellow Fill</t>
+  </si>
+  <si>
+    <t>Thick Border</t>
+  </si>
+  <si>
+    <t>Centered Text</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>Currency Format</t>
+  </si>
+  <si>
+    <t>Formula Example</t>
+  </si>
+  <si>
+    <t>Merged Cells Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -36,6 +76,22 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <i/>
+    </font>
+    <font>
+      <u/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="3">
@@ -47,11 +103,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,13 +115,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,19 +482,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,50 +506,110 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44927.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1234.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <f>SUM(A2:A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
